--- a/Data Files/PerkinsusMD&VA2.xlsx
+++ b/Data Files/PerkinsusMD&VA2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariahkachmar/Documents/UMBC/GitHub/Meta-analysis-Perkinsus-Marinus/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{110A7463-6B9E-5747-8909-B4EB454AB1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E949B37B-0310-9246-BE5A-1F668CDF6295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="27240" windowHeight="15940" xr2:uid="{36CBCD6E-0B93-674C-8F85-B47A07E412D8}"/>
+    <workbookView xWindow="32500" yWindow="1160" windowWidth="30560" windowHeight="20800" xr2:uid="{36CBCD6E-0B93-674C-8F85-B47A07E412D8}"/>
   </bookViews>
   <sheets>
     <sheet name="PerkinsusMD&amp;VA2" sheetId="1" r:id="rId1"/>
@@ -1225,8 +1225,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J2314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2214" workbookViewId="0">
-      <selection activeCell="E1527" sqref="E1527:E1556"/>
+    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
+      <selection activeCell="F1783" sqref="F1783:G1812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49214,7 +49214,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1527" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1527" s="3">
         <v>3</v>
@@ -49246,7 +49246,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1528" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1528" s="3">
         <v>60</v>
@@ -49278,7 +49278,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1529" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1529" s="4">
         <v>100</v>
@@ -49310,7 +49310,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1530" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1530" s="4">
         <v>93</v>
@@ -49342,7 +49342,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1531" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1531" s="4">
         <v>10</v>
@@ -49374,7 +49374,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1532" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1532" s="4">
         <v>68</v>
@@ -49406,7 +49406,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1533" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1533" s="4">
         <v>13</v>
@@ -49438,7 +49438,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1534" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1534" s="4">
         <v>50</v>
@@ -49470,7 +49470,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1535" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1535" s="4">
         <v>20</v>
@@ -49502,7 +49502,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1536" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1536" s="4">
         <v>83</v>
@@ -49534,7 +49534,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1537" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1537" s="4">
         <v>73</v>
@@ -49566,7 +49566,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1538" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1538" s="4">
         <v>100</v>
@@ -49598,7 +49598,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1539" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1539" s="4">
         <v>100</v>
@@ -49630,7 +49630,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1540" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1540" s="4">
         <v>43</v>
@@ -49662,7 +49662,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1541" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1541" s="4">
         <v>43</v>
@@ -49694,7 +49694,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1542" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1542" s="4">
         <v>17</v>
@@ -49726,7 +49726,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1543" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1543" s="4">
         <v>30</v>
@@ -49758,7 +49758,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1544" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1544" s="4">
         <v>27</v>
@@ -49790,7 +49790,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1545" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1545" s="4">
         <v>0</v>
@@ -49822,7 +49822,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1546" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1546" s="4">
         <v>0</v>
@@ -49854,7 +49854,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1547" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1547" s="4">
         <v>0</v>
@@ -49886,7 +49886,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1548" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1548" s="4">
         <v>3</v>
@@ -49918,7 +49918,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1549" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1549" s="4">
         <v>0</v>
@@ -49950,7 +49950,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1550" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1550" s="4">
         <v>7</v>
@@ -49982,7 +49982,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1551" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1551" s="4">
         <v>3</v>
@@ -50014,7 +50014,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1552" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1552" s="4">
         <v>40</v>
@@ -50046,7 +50046,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1553" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1553" s="4">
         <v>80</v>
@@ -50078,7 +50078,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1554" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1554" s="4">
         <v>77</v>
@@ -50110,7 +50110,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1555" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1555" s="4">
         <v>57</v>
@@ -50142,7 +50142,7 @@
         <v>38.589233</v>
       </c>
       <c r="G1556" s="3">
-        <v>-75.005516999999998</v>
+        <v>-76.005516999999998</v>
       </c>
       <c r="H1556" s="4">
         <v>3</v>
@@ -50174,7 +50174,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1557" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1557" s="3">
         <v>93</v>
@@ -50206,7 +50206,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1558" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1558" s="3">
         <v>97</v>
@@ -50238,7 +50238,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1559" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1559" s="4">
         <v>100</v>
@@ -50270,7 +50270,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1560" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1560" s="4">
         <v>93</v>
@@ -50302,7 +50302,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1561" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1561" s="4">
         <v>10</v>
@@ -50334,7 +50334,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1562" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1562" s="4">
         <v>93</v>
@@ -50366,7 +50366,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1563" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1563" s="4">
         <v>82</v>
@@ -50398,7 +50398,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1564" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1564" s="4">
         <v>86</v>
@@ -50430,7 +50430,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1565" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1565" s="4">
         <v>73</v>
@@ -50462,7 +50462,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1566" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1566" s="4">
         <v>97</v>
@@ -50494,7 +50494,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1567" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1567" s="4">
         <v>68</v>
@@ -50526,7 +50526,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1568" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1568" s="4">
         <v>100</v>
@@ -50558,7 +50558,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1569" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1569" s="4">
         <v>93</v>
@@ -50590,7 +50590,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1570" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1570" s="4">
         <v>60</v>
@@ -50622,7 +50622,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1571" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1571" s="4">
         <v>83</v>
@@ -50654,7 +50654,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1572" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1572" s="4">
         <v>83</v>
@@ -50686,7 +50686,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1573" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1573" s="4">
         <v>80</v>
@@ -50718,7 +50718,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1574" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1574" s="4">
         <v>90</v>
@@ -50750,7 +50750,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1575" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1575" s="4">
         <v>57</v>
@@ -50782,7 +50782,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1576" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1576" s="4">
         <v>93</v>
@@ -50814,7 +50814,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1577" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1577" s="4">
         <v>97</v>
@@ -50846,7 +50846,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1578" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1578" s="4">
         <v>53</v>
@@ -50878,7 +50878,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1579" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1579" s="4">
         <v>87</v>
@@ -50910,7 +50910,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1580" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1580" s="4">
         <v>77</v>
@@ -50942,7 +50942,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1581" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1581" s="4">
         <v>83</v>
@@ -50974,7 +50974,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1582" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1582" s="4">
         <v>83</v>
@@ -51006,7 +51006,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1583" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1583" s="4">
         <v>83</v>
@@ -51038,7 +51038,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1584" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1584" s="4">
         <v>80</v>
@@ -51070,7 +51070,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1585" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1585" s="4">
         <v>63</v>
@@ -51102,7 +51102,7 @@
         <v>38.191800000000001</v>
       </c>
       <c r="G1586" s="3">
-        <v>-75.443766999999994</v>
+        <v>-76.443766999999994</v>
       </c>
       <c r="H1586" s="4">
         <v>17</v>
@@ -53239,7 +53239,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1654" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1654" s="3">
         <v>20</v>
@@ -53271,7 +53271,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1655" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1655" s="3">
         <v>97</v>
@@ -53303,7 +53303,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1656" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1656" s="4">
         <v>80</v>
@@ -53335,7 +53335,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1657" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1657" s="4">
         <v>100</v>
@@ -53367,7 +53367,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1658" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1658" s="4">
         <v>93</v>
@@ -53399,7 +53399,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1659" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1659" s="4">
         <v>70</v>
@@ -53431,7 +53431,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1660" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1660" s="4">
         <v>73</v>
@@ -53463,7 +53463,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1661" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1661" s="4">
         <v>63</v>
@@ -53495,7 +53495,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1662" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1662" s="4">
         <v>80</v>
@@ -53527,7 +53527,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1663" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1663" s="4">
         <v>100</v>
@@ -53559,7 +53559,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1664" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1664" s="4">
         <v>100</v>
@@ -53591,7 +53591,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1665" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1665" s="4">
         <v>100</v>
@@ -53623,7 +53623,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1666" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1666" s="4">
         <v>100</v>
@@ -53655,7 +53655,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1667" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1667" s="4">
         <v>90</v>
@@ -53687,7 +53687,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1668" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1668" s="4">
         <v>93</v>
@@ -53719,7 +53719,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1669" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1669" s="4">
         <v>87</v>
@@ -53751,7 +53751,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1670" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1670" s="4">
         <v>87</v>
@@ -53783,7 +53783,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1671" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1671" s="4">
         <v>97</v>
@@ -53815,7 +53815,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1672" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1672" s="4">
         <v>87</v>
@@ -53847,7 +53847,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1673" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1673" s="4">
         <v>100</v>
@@ -53879,7 +53879,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1674" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1674" s="4">
         <v>60</v>
@@ -53911,7 +53911,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1675" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1675" s="4">
         <v>10</v>
@@ -53943,7 +53943,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1676" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1676" s="4">
         <v>23</v>
@@ -53975,7 +53975,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1677" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1677" s="4">
         <v>30</v>
@@ -54007,7 +54007,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1678" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1678" s="4">
         <v>15</v>
@@ -54039,7 +54039,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1679" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1679" s="4">
         <v>53</v>
@@ -54071,7 +54071,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1680" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1680" s="4">
         <v>77</v>
@@ -54103,7 +54103,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1681" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1681" s="4">
         <v>83</v>
@@ -54135,7 +54135,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1682" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1682" s="4">
         <v>43</v>
@@ -54167,7 +54167,7 @@
         <v>38.895882999999998</v>
       </c>
       <c r="G1683" s="3">
-        <v>-75.260199999999998</v>
+        <v>-76.260199999999998</v>
       </c>
       <c r="H1683" s="4">
         <v>7</v>
@@ -57254,10 +57254,10 @@
         <v>152</v>
       </c>
       <c r="F1783" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1783" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1783" s="3">
         <v>100</v>
@@ -57286,10 +57286,10 @@
         <v>152</v>
       </c>
       <c r="F1784" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1784" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="I1784" s="2" t="s">
         <v>45</v>
@@ -57315,10 +57315,10 @@
         <v>152</v>
       </c>
       <c r="F1785" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1785" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1785" s="4">
         <v>100</v>
@@ -57347,10 +57347,10 @@
         <v>152</v>
       </c>
       <c r="F1786" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1786" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1786" s="4">
         <v>100</v>
@@ -57379,10 +57379,10 @@
         <v>152</v>
       </c>
       <c r="F1787" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1787" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1787" s="4">
         <v>87</v>
@@ -57411,10 +57411,10 @@
         <v>152</v>
       </c>
       <c r="F1788" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1788" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1788" s="4">
         <v>93</v>
@@ -57443,10 +57443,10 @@
         <v>152</v>
       </c>
       <c r="F1789" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1789" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1789" s="4">
         <v>97</v>
@@ -57475,10 +57475,10 @@
         <v>152</v>
       </c>
       <c r="F1790" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1790" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1790" s="4">
         <v>97</v>
@@ -57507,10 +57507,10 @@
         <v>152</v>
       </c>
       <c r="F1791" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1791" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1791" s="4">
         <v>87</v>
@@ -57539,10 +57539,10 @@
         <v>152</v>
       </c>
       <c r="F1792" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1792" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1792" s="4">
         <v>100</v>
@@ -57571,10 +57571,10 @@
         <v>152</v>
       </c>
       <c r="F1793" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1793" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1793" s="4">
         <v>97</v>
@@ -57603,10 +57603,10 @@
         <v>152</v>
       </c>
       <c r="F1794" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1794" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1794" s="4">
         <v>100</v>
@@ -57635,10 +57635,10 @@
         <v>152</v>
       </c>
       <c r="F1795" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1795" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1795" s="4">
         <v>100</v>
@@ -57667,10 +57667,10 @@
         <v>152</v>
       </c>
       <c r="F1796" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1796" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1796" s="4">
         <v>43</v>
@@ -57699,10 +57699,10 @@
         <v>152</v>
       </c>
       <c r="F1797" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1797" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1797" s="4">
         <v>13</v>
@@ -57731,10 +57731,10 @@
         <v>152</v>
       </c>
       <c r="F1798" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1798" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1798" s="4">
         <v>10</v>
@@ -57763,10 +57763,10 @@
         <v>152</v>
       </c>
       <c r="F1799" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1799" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1799" s="4">
         <v>23</v>
@@ -57795,10 +57795,10 @@
         <v>152</v>
       </c>
       <c r="F1800" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1800" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1800" s="4">
         <v>93</v>
@@ -57827,10 +57827,10 @@
         <v>152</v>
       </c>
       <c r="F1801" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1801" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1801" s="4">
         <v>37</v>
@@ -57859,10 +57859,10 @@
         <v>152</v>
       </c>
       <c r="F1802" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1802" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1802" s="4">
         <v>80</v>
@@ -57891,10 +57891,10 @@
         <v>152</v>
       </c>
       <c r="F1803" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1803" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1803" s="4">
         <v>83</v>
@@ -57923,10 +57923,10 @@
         <v>152</v>
       </c>
       <c r="F1804" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1804" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1804" s="4">
         <v>60</v>
@@ -57955,10 +57955,10 @@
         <v>152</v>
       </c>
       <c r="F1805" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1805" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1805" s="4">
         <v>93</v>
@@ -57987,10 +57987,10 @@
         <v>152</v>
       </c>
       <c r="F1806" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1806" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1806" s="4">
         <v>97</v>
@@ -58019,10 +58019,10 @@
         <v>152</v>
       </c>
       <c r="F1807" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1807" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1807" s="4">
         <v>83</v>
@@ -58051,10 +58051,10 @@
         <v>152</v>
       </c>
       <c r="F1808" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1808" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1808" s="4">
         <v>100</v>
@@ -58083,10 +58083,10 @@
         <v>152</v>
       </c>
       <c r="F1809" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1809" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1809" s="4">
         <v>93</v>
@@ -58115,10 +58115,10 @@
         <v>152</v>
       </c>
       <c r="F1810" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1810" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1810" s="4">
         <v>97</v>
@@ -58147,10 +58147,10 @@
         <v>152</v>
       </c>
       <c r="F1811" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1811" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1811" s="4">
         <v>67</v>
@@ -58179,10 +58179,10 @@
         <v>152</v>
       </c>
       <c r="F1812" s="3">
-        <v>38.532367000000001</v>
+        <v>38.536450000000002</v>
       </c>
       <c r="G1812" s="3">
-        <v>-75.243116999999998</v>
+        <v>-76.289033333299997</v>
       </c>
       <c r="H1812" s="4">
         <v>60</v>

--- a/Data Files/PerkinsusMD&VA2.xlsx
+++ b/Data Files/PerkinsusMD&VA2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariahkachmar/Documents/UMBC/GitHub/Meta-analysis-Perkinsus-Marinus/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4272CF4F-10DE-8747-B4E8-A93D62E58860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A100D4-9CE7-BD41-BC09-3BBABF4AA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1240" windowWidth="27640" windowHeight="15960"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerkinsusMD&amp;VA2" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1658,15 +1658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1478" workbookViewId="0">
-      <selection activeCell="E1496" sqref="E1496"/>
+    <sheetView tabSelected="1" topLeftCell="A2211" workbookViewId="0">
+      <selection activeCell="D2241" sqref="D2241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Data Files/PerkinsusMD&VA2.xlsx
+++ b/Data Files/PerkinsusMD&VA2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariahkachmar/Documents/UMBC/GitHub/Meta-analysis-Perkinsus-Marinus/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A100D4-9CE7-BD41-BC09-3BBABF4AA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B5525-BB5B-E248-AE4B-7D6AFCC9477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2211" workbookViewId="0">
-      <selection activeCell="D2241" sqref="D2241"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="K634" sqref="K634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21735,7 +21735,7 @@
         <v>94</v>
       </c>
       <c r="J639">
-        <v>54</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.2">

--- a/Data Files/PerkinsusMD&VA2.xlsx
+++ b/Data Files/PerkinsusMD&VA2.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariahkachmar/Documents/UMBC/GitHub/Meta-analysis-Perkinsus-Marinus/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628B5525-BB5B-E248-AE4B-7D6AFCC9477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78930F-ABB0-EB43-AAA3-2D4071B426F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerkinsusMD&amp;VA2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PerkinsusMD&amp;VA2'!$D$1:$D$2314</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11430" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11430" uniqueCount="262">
   <si>
     <t>Year</t>
   </si>
@@ -748,9 +751,6 @@
     <t>THOROUGHFARE</t>
   </si>
   <si>
-    <t>WICOMICO RIVER</t>
-  </si>
-  <si>
     <t>LANCASTER</t>
   </si>
   <si>
@@ -785,9 +785,6 @@
   </si>
   <si>
     <t>WHALEYS</t>
-  </si>
-  <si>
-    <t>GREAT WICCOMICO RIVER</t>
   </si>
   <si>
     <t>WHITE SHOAL</t>
@@ -1661,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="K634" sqref="K634"/>
+    <sheetView tabSelected="1" topLeftCell="A1625" workbookViewId="0">
+      <selection activeCell="J1640" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50472,7 +50469,7 @@
         <v>40</v>
       </c>
       <c r="I1557" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1557">
         <v>0.7</v>
@@ -50504,7 +50501,7 @@
         <v>10</v>
       </c>
       <c r="I1558" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1558">
         <v>0.3</v>
@@ -50536,7 +50533,7 @@
         <v>23</v>
       </c>
       <c r="I1559" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1559">
         <v>0.6</v>
@@ -50568,7 +50565,7 @@
         <v>7</v>
       </c>
       <c r="I1560" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1560">
         <v>0.1</v>
@@ -50600,7 +50597,7 @@
         <v>7</v>
       </c>
       <c r="I1561" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1561">
         <v>0.1</v>
@@ -50632,7 +50629,7 @@
         <v>13</v>
       </c>
       <c r="I1562" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1562">
         <v>0.2</v>
@@ -50664,7 +50661,7 @@
         <v>3</v>
       </c>
       <c r="I1563" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1563">
         <v>0.3</v>
@@ -50696,7 +50693,7 @@
         <v>0</v>
       </c>
       <c r="I1564" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1564">
         <v>0</v>
@@ -50728,7 +50725,7 @@
         <v>0</v>
       </c>
       <c r="I1565" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1565">
         <v>0</v>
@@ -50760,7 +50757,7 @@
         <v>0</v>
       </c>
       <c r="I1566" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1566">
         <v>0</v>
@@ -50792,7 +50789,7 @@
         <v>17</v>
       </c>
       <c r="I1567" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1567">
         <v>0.5</v>
@@ -50824,7 +50821,7 @@
         <v>90</v>
       </c>
       <c r="I1568" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1568">
         <v>2.2999999999999998</v>
@@ -50856,7 +50853,7 @@
         <v>97</v>
       </c>
       <c r="I1569" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1569">
         <v>2.5</v>
@@ -50888,7 +50885,7 @@
         <v>13</v>
       </c>
       <c r="I1570" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1570">
         <v>0.5</v>
@@ -50920,7 +50917,7 @@
         <v>17</v>
       </c>
       <c r="I1571" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1571">
         <v>0.4</v>
@@ -50952,7 +50949,7 @@
         <v>13</v>
       </c>
       <c r="I1572" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1572">
         <v>0.2</v>
@@ -50984,7 +50981,7 @@
         <v>10</v>
       </c>
       <c r="I1573" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1573">
         <v>0.1</v>
@@ -51016,7 +51013,7 @@
         <v>30</v>
       </c>
       <c r="I1574" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1574">
         <v>0.6</v>
@@ -51048,7 +51045,7 @@
         <v>7</v>
       </c>
       <c r="I1575" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1575">
         <v>0.1</v>
@@ -51080,7 +51077,7 @@
         <v>10</v>
       </c>
       <c r="I1576" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1576">
         <v>0.3</v>
@@ -51112,7 +51109,7 @@
         <v>40</v>
       </c>
       <c r="I1577" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1577">
         <v>0.9</v>
@@ -51144,7 +51141,7 @@
         <v>20</v>
       </c>
       <c r="I1578" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1578">
         <v>0.4</v>
@@ -51176,7 +51173,7 @@
         <v>20</v>
       </c>
       <c r="I1579" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1579">
         <v>0.3</v>
@@ -51208,7 +51205,7 @@
         <v>20</v>
       </c>
       <c r="I1580" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1580">
         <v>0.4</v>
@@ -51240,7 +51237,7 @@
         <v>3</v>
       </c>
       <c r="I1581" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1581">
         <v>0.1</v>
@@ -51272,7 +51269,7 @@
         <v>55</v>
       </c>
       <c r="I1582" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1582">
         <v>1.6</v>
@@ -51304,7 +51301,7 @@
         <v>33</v>
       </c>
       <c r="I1583" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1583">
         <v>1.1000000000000001</v>
@@ -51336,7 +51333,7 @@
         <v>50</v>
       </c>
       <c r="I1584" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1584">
         <v>1.6</v>
@@ -51368,7 +51365,7 @@
         <v>0</v>
       </c>
       <c r="I1585" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1585">
         <v>0</v>
@@ -51397,7 +51394,7 @@
         <v>-76.981866999999994</v>
       </c>
       <c r="I1586" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1586" t="s">
         <v>47</v>
@@ -68281,10 +68278,10 @@
         <v>15</v>
       </c>
       <c r="D2126" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2126" t="s">
         <v>242</v>
-      </c>
-      <c r="E2126" t="s">
-        <v>243</v>
       </c>
       <c r="F2126">
         <v>38.276032999999998</v>
@@ -68313,10 +68310,10 @@
         <v>15</v>
       </c>
       <c r="D2127" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2127" t="s">
         <v>242</v>
-      </c>
-      <c r="E2127" t="s">
-        <v>243</v>
       </c>
       <c r="F2127">
         <v>38.276032999999998</v>
@@ -68345,10 +68342,10 @@
         <v>15</v>
       </c>
       <c r="D2128" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2128" t="s">
         <v>242</v>
-      </c>
-      <c r="E2128" t="s">
-        <v>243</v>
       </c>
       <c r="F2128">
         <v>38.276032999999998</v>
@@ -68377,10 +68374,10 @@
         <v>15</v>
       </c>
       <c r="D2129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2129" t="s">
         <v>242</v>
-      </c>
-      <c r="E2129" t="s">
-        <v>243</v>
       </c>
       <c r="F2129">
         <v>38.276032999999998</v>
@@ -68409,10 +68406,10 @@
         <v>15</v>
       </c>
       <c r="D2130" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2130" t="s">
         <v>242</v>
-      </c>
-      <c r="E2130" t="s">
-        <v>243</v>
       </c>
       <c r="F2130">
         <v>38.276032999999998</v>
@@ -68441,10 +68438,10 @@
         <v>15</v>
       </c>
       <c r="D2131" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2131" t="s">
         <v>242</v>
-      </c>
-      <c r="E2131" t="s">
-        <v>243</v>
       </c>
       <c r="F2131">
         <v>38.276032999999998</v>
@@ -68473,10 +68470,10 @@
         <v>15</v>
       </c>
       <c r="D2132" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2132" t="s">
         <v>242</v>
-      </c>
-      <c r="E2132" t="s">
-        <v>243</v>
       </c>
       <c r="F2132">
         <v>38.276032999999998</v>
@@ -68505,10 +68502,10 @@
         <v>15</v>
       </c>
       <c r="D2133" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2133" t="s">
         <v>242</v>
-      </c>
-      <c r="E2133" t="s">
-        <v>243</v>
       </c>
       <c r="F2133">
         <v>38.276032999999998</v>
@@ -68537,10 +68534,10 @@
         <v>15</v>
       </c>
       <c r="D2134" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2134" t="s">
         <v>242</v>
-      </c>
-      <c r="E2134" t="s">
-        <v>243</v>
       </c>
       <c r="F2134">
         <v>38.276032999999998</v>
@@ -68569,10 +68566,10 @@
         <v>15</v>
       </c>
       <c r="D2135" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2135" t="s">
         <v>242</v>
-      </c>
-      <c r="E2135" t="s">
-        <v>243</v>
       </c>
       <c r="F2135">
         <v>38.276032999999998</v>
@@ -68601,10 +68598,10 @@
         <v>15</v>
       </c>
       <c r="D2136" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2136" t="s">
         <v>242</v>
-      </c>
-      <c r="E2136" t="s">
-        <v>243</v>
       </c>
       <c r="F2136">
         <v>38.276032999999998</v>
@@ -68633,10 +68630,10 @@
         <v>15</v>
       </c>
       <c r="D2137" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2137" t="s">
         <v>242</v>
-      </c>
-      <c r="E2137" t="s">
-        <v>243</v>
       </c>
       <c r="F2137">
         <v>38.276032999999998</v>
@@ -68665,10 +68662,10 @@
         <v>15</v>
       </c>
       <c r="D2138" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2138" t="s">
         <v>242</v>
-      </c>
-      <c r="E2138" t="s">
-        <v>243</v>
       </c>
       <c r="F2138">
         <v>38.276032999999998</v>
@@ -68697,10 +68694,10 @@
         <v>15</v>
       </c>
       <c r="D2139" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2139" t="s">
         <v>242</v>
-      </c>
-      <c r="E2139" t="s">
-        <v>243</v>
       </c>
       <c r="F2139">
         <v>38.276032999999998</v>
@@ -68729,10 +68726,10 @@
         <v>15</v>
       </c>
       <c r="D2140" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2140" t="s">
         <v>242</v>
-      </c>
-      <c r="E2140" t="s">
-        <v>243</v>
       </c>
       <c r="F2140">
         <v>38.276032999999998</v>
@@ -68761,10 +68758,10 @@
         <v>15</v>
       </c>
       <c r="D2141" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2141" t="s">
         <v>242</v>
-      </c>
-      <c r="E2141" t="s">
-        <v>243</v>
       </c>
       <c r="F2141">
         <v>38.276032999999998</v>
@@ -68793,10 +68790,10 @@
         <v>15</v>
       </c>
       <c r="D2142" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2142" t="s">
         <v>242</v>
-      </c>
-      <c r="E2142" t="s">
-        <v>243</v>
       </c>
       <c r="F2142">
         <v>38.276032999999998</v>
@@ -68825,10 +68822,10 @@
         <v>15</v>
       </c>
       <c r="D2143" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2143" t="s">
         <v>242</v>
-      </c>
-      <c r="E2143" t="s">
-        <v>243</v>
       </c>
       <c r="F2143">
         <v>38.276032999999998</v>
@@ -68857,10 +68854,10 @@
         <v>15</v>
       </c>
       <c r="D2144" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2144" t="s">
         <v>242</v>
-      </c>
-      <c r="E2144" t="s">
-        <v>243</v>
       </c>
       <c r="F2144">
         <v>38.276032999999998</v>
@@ -68889,10 +68886,10 @@
         <v>15</v>
       </c>
       <c r="D2145" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2145" t="s">
         <v>242</v>
-      </c>
-      <c r="E2145" t="s">
-        <v>243</v>
       </c>
       <c r="F2145">
         <v>38.276032999999998</v>
@@ -68921,10 +68918,10 @@
         <v>15</v>
       </c>
       <c r="D2146" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2146" t="s">
         <v>242</v>
-      </c>
-      <c r="E2146" t="s">
-        <v>243</v>
       </c>
       <c r="F2146">
         <v>38.276032999999998</v>
@@ -68953,10 +68950,10 @@
         <v>15</v>
       </c>
       <c r="D2147" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2147" t="s">
         <v>242</v>
-      </c>
-      <c r="E2147" t="s">
-        <v>243</v>
       </c>
       <c r="F2147">
         <v>38.276032999999998</v>
@@ -68985,10 +68982,10 @@
         <v>15</v>
       </c>
       <c r="D2148" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2148" t="s">
         <v>242</v>
-      </c>
-      <c r="E2148" t="s">
-        <v>243</v>
       </c>
       <c r="F2148">
         <v>38.276032999999998</v>
@@ -69017,10 +69014,10 @@
         <v>15</v>
       </c>
       <c r="D2149" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2149" t="s">
         <v>242</v>
-      </c>
-      <c r="E2149" t="s">
-        <v>243</v>
       </c>
       <c r="F2149">
         <v>38.276032999999998</v>
@@ -69049,10 +69046,10 @@
         <v>15</v>
       </c>
       <c r="D2150" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2150" t="s">
         <v>242</v>
-      </c>
-      <c r="E2150" t="s">
-        <v>243</v>
       </c>
       <c r="F2150">
         <v>38.276032999999998</v>
@@ -69081,10 +69078,10 @@
         <v>15</v>
       </c>
       <c r="D2151" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2151" t="s">
         <v>242</v>
-      </c>
-      <c r="E2151" t="s">
-        <v>243</v>
       </c>
       <c r="F2151">
         <v>38.276032999999998</v>
@@ -69113,10 +69110,10 @@
         <v>15</v>
       </c>
       <c r="D2152" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2152" t="s">
         <v>242</v>
-      </c>
-      <c r="E2152" t="s">
-        <v>243</v>
       </c>
       <c r="F2152">
         <v>38.276032999999998</v>
@@ -69145,10 +69142,10 @@
         <v>15</v>
       </c>
       <c r="D2153" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2153" t="s">
         <v>242</v>
-      </c>
-      <c r="E2153" t="s">
-        <v>243</v>
       </c>
       <c r="F2153">
         <v>38.276032999999998</v>
@@ -69177,10 +69174,10 @@
         <v>15</v>
       </c>
       <c r="D2154" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2154" t="s">
         <v>242</v>
-      </c>
-      <c r="E2154" t="s">
-        <v>243</v>
       </c>
       <c r="F2154">
         <v>38.276032999999998</v>
@@ -69209,10 +69206,10 @@
         <v>15</v>
       </c>
       <c r="D2155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2155" t="s">
         <v>242</v>
-      </c>
-      <c r="E2155" t="s">
-        <v>243</v>
       </c>
       <c r="F2155">
         <v>38.276032999999998</v>
@@ -69244,7 +69241,7 @@
         <v>23</v>
       </c>
       <c r="E2156" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H2156">
         <v>12</v>
@@ -69267,7 +69264,7 @@
         <v>97</v>
       </c>
       <c r="E2157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2157">
         <v>37.338883000000003</v>
@@ -69299,7 +69296,7 @@
         <v>97</v>
       </c>
       <c r="E2158" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2158">
         <v>37.338883000000003</v>
@@ -69331,7 +69328,7 @@
         <v>97</v>
       </c>
       <c r="E2159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2159">
         <v>37.338883000000003</v>
@@ -69363,7 +69360,7 @@
         <v>97</v>
       </c>
       <c r="E2160" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2160">
         <v>37.338883000000003</v>
@@ -69395,7 +69392,7 @@
         <v>97</v>
       </c>
       <c r="E2161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2161">
         <v>37.338883000000003</v>
@@ -69427,7 +69424,7 @@
         <v>97</v>
       </c>
       <c r="E2162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2162">
         <v>37.338883000000003</v>
@@ -69459,7 +69456,7 @@
         <v>97</v>
       </c>
       <c r="E2163" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2163">
         <v>37.338883000000003</v>
@@ -69491,7 +69488,7 @@
         <v>97</v>
       </c>
       <c r="E2164" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2164">
         <v>37.338883000000003</v>
@@ -69523,7 +69520,7 @@
         <v>97</v>
       </c>
       <c r="E2165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2165">
         <v>37.338883000000003</v>
@@ -69555,7 +69552,7 @@
         <v>97</v>
       </c>
       <c r="E2166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2166">
         <v>37.338883000000003</v>
@@ -69587,7 +69584,7 @@
         <v>97</v>
       </c>
       <c r="E2167" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2167">
         <v>37.338883000000003</v>
@@ -69619,7 +69616,7 @@
         <v>97</v>
       </c>
       <c r="E2168" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2168">
         <v>37.338883000000003</v>
@@ -69651,7 +69648,7 @@
         <v>97</v>
       </c>
       <c r="E2169" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2169">
         <v>37.338883000000003</v>
@@ -69677,7 +69674,7 @@
         <v>97</v>
       </c>
       <c r="E2170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2170">
         <v>37.338883000000003</v>
@@ -69709,7 +69706,7 @@
         <v>97</v>
       </c>
       <c r="E2171" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2171">
         <v>37.338883000000003</v>
@@ -69738,10 +69735,10 @@
         <v>15</v>
       </c>
       <c r="D2172" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2172" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2172">
         <v>37.338883000000003</v>
@@ -69773,7 +69770,7 @@
         <v>97</v>
       </c>
       <c r="E2173" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2173">
         <v>37.338883000000003</v>
@@ -69805,7 +69802,7 @@
         <v>97</v>
       </c>
       <c r="E2174" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2174">
         <v>37.338883000000003</v>
@@ -69837,7 +69834,7 @@
         <v>97</v>
       </c>
       <c r="E2175" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2175">
         <v>37.338883000000003</v>
@@ -69869,7 +69866,7 @@
         <v>97</v>
       </c>
       <c r="E2176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2176">
         <v>37.338883000000003</v>
@@ -69901,7 +69898,7 @@
         <v>97</v>
       </c>
       <c r="E2177" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2177">
         <v>37.338883000000003</v>
@@ -69933,7 +69930,7 @@
         <v>97</v>
       </c>
       <c r="E2178" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2178">
         <v>37.338883000000003</v>
@@ -69965,7 +69962,7 @@
         <v>97</v>
       </c>
       <c r="E2179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2179">
         <v>37.338883000000003</v>
@@ -69997,7 +69994,7 @@
         <v>97</v>
       </c>
       <c r="E2180" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2180">
         <v>37.338883000000003</v>
@@ -70029,7 +70026,7 @@
         <v>97</v>
       </c>
       <c r="E2181" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2181">
         <v>37.338883000000003</v>
@@ -70061,7 +70058,7 @@
         <v>97</v>
       </c>
       <c r="E2182" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2182">
         <v>37.338883000000003</v>
@@ -70093,7 +70090,7 @@
         <v>97</v>
       </c>
       <c r="E2183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2183">
         <v>37.338883000000003</v>
@@ -70125,7 +70122,7 @@
         <v>23</v>
       </c>
       <c r="E2184" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2184">
         <v>0</v>
@@ -70148,7 +70145,7 @@
         <v>23</v>
       </c>
       <c r="E2185" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2185">
         <v>0</v>
@@ -70171,7 +70168,7 @@
         <v>23</v>
       </c>
       <c r="E2186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2186">
         <v>4</v>
@@ -70191,10 +70188,10 @@
         <v>15</v>
       </c>
       <c r="D2187" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2187">
         <v>38.334682999999998</v>
@@ -70223,10 +70220,10 @@
         <v>15</v>
       </c>
       <c r="D2188" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2188" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2188">
         <v>38.334682999999998</v>
@@ -70255,10 +70252,10 @@
         <v>15</v>
       </c>
       <c r="D2189" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2189">
         <v>38.334682999999998</v>
@@ -70287,10 +70284,10 @@
         <v>15</v>
       </c>
       <c r="D2190" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2190">
         <v>38.334682999999998</v>
@@ -70319,10 +70316,10 @@
         <v>15</v>
       </c>
       <c r="D2191" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2191" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2191">
         <v>38.334682999999998</v>
@@ -70351,10 +70348,10 @@
         <v>15</v>
       </c>
       <c r="D2192" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2192">
         <v>38.334682999999998</v>
@@ -70383,10 +70380,10 @@
         <v>15</v>
       </c>
       <c r="D2193" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2193">
         <v>38.334682999999998</v>
@@ -70415,10 +70412,10 @@
         <v>15</v>
       </c>
       <c r="D2194" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2194">
         <v>38.334682999999998</v>
@@ -70447,10 +70444,10 @@
         <v>15</v>
       </c>
       <c r="D2195" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2195" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2195">
         <v>38.334682999999998</v>
@@ -70479,10 +70476,10 @@
         <v>15</v>
       </c>
       <c r="D2196" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2196">
         <v>38.334682999999998</v>
@@ -70511,10 +70508,10 @@
         <v>15</v>
       </c>
       <c r="D2197" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2197" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2197">
         <v>38.334682999999998</v>
@@ -70543,10 +70540,10 @@
         <v>15</v>
       </c>
       <c r="D2198" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2198" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2198">
         <v>38.334682999999998</v>
@@ -70575,10 +70572,10 @@
         <v>15</v>
       </c>
       <c r="D2199" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2199">
         <v>38.334682999999998</v>
@@ -70607,10 +70604,10 @@
         <v>15</v>
       </c>
       <c r="D2200" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2200">
         <v>38.334682999999998</v>
@@ -70639,10 +70636,10 @@
         <v>15</v>
       </c>
       <c r="D2201" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2201" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2201">
         <v>38.334682999999998</v>
@@ -70671,10 +70668,10 @@
         <v>15</v>
       </c>
       <c r="D2202" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2202" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2202">
         <v>38.334682999999998</v>
@@ -70703,10 +70700,10 @@
         <v>15</v>
       </c>
       <c r="D2203" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2203" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2203">
         <v>38.334682999999998</v>
@@ -70735,10 +70732,10 @@
         <v>15</v>
       </c>
       <c r="D2204" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2204" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2204">
         <v>38.334682999999998</v>
@@ -70767,10 +70764,10 @@
         <v>15</v>
       </c>
       <c r="D2205" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2205" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2205">
         <v>38.334682999999998</v>
@@ -70799,10 +70796,10 @@
         <v>15</v>
       </c>
       <c r="D2206" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2206" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2206">
         <v>38.334682999999998</v>
@@ -70831,10 +70828,10 @@
         <v>15</v>
       </c>
       <c r="D2207" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2207" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2207">
         <v>38.334682999999998</v>
@@ -70863,10 +70860,10 @@
         <v>15</v>
       </c>
       <c r="D2208" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2208" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2208">
         <v>38.334682999999998</v>
@@ -70895,10 +70892,10 @@
         <v>15</v>
       </c>
       <c r="D2209" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2209">
         <v>38.334682999999998</v>
@@ -70927,10 +70924,10 @@
         <v>15</v>
       </c>
       <c r="D2210" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2210" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2210">
         <v>38.334682999999998</v>
@@ -70959,10 +70956,10 @@
         <v>15</v>
       </c>
       <c r="D2211" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2211">
         <v>38.334682999999998</v>
@@ -70991,10 +70988,10 @@
         <v>15</v>
       </c>
       <c r="D2212" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2212" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2212">
         <v>38.334682999999998</v>
@@ -71023,10 +71020,10 @@
         <v>15</v>
       </c>
       <c r="D2213" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2213" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2213">
         <v>38.334682999999998</v>
@@ -71055,10 +71052,10 @@
         <v>15</v>
       </c>
       <c r="D2214" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2214" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2214">
         <v>38.334682999999998</v>
@@ -71087,10 +71084,10 @@
         <v>15</v>
       </c>
       <c r="D2215" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2215" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2215">
         <v>38.334682999999998</v>
@@ -71119,10 +71116,10 @@
         <v>15</v>
       </c>
       <c r="D2216" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E2216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2216">
         <v>38.334682999999998</v>
@@ -71154,7 +71151,7 @@
         <v>23</v>
       </c>
       <c r="E2217" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H2217">
         <v>84</v>
@@ -71177,7 +71174,7 @@
         <v>83</v>
       </c>
       <c r="E2218" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H2218">
         <v>100</v>
@@ -71197,10 +71194,10 @@
         <v>15</v>
       </c>
       <c r="D2219" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2219" t="s">
         <v>252</v>
-      </c>
-      <c r="E2219" t="s">
-        <v>253</v>
       </c>
       <c r="H2219">
         <v>100</v>
@@ -71223,7 +71220,7 @@
         <v>78</v>
       </c>
       <c r="E2220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2220">
         <v>37.808616999999998</v>
@@ -71255,7 +71252,7 @@
         <v>78</v>
       </c>
       <c r="E2221" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2221">
         <v>37.808616999999998</v>
@@ -71287,7 +71284,7 @@
         <v>78</v>
       </c>
       <c r="E2222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2222">
         <v>37.808616999999998</v>
@@ -71319,7 +71316,7 @@
         <v>78</v>
       </c>
       <c r="E2223" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2223">
         <v>37.808616999999998</v>
@@ -71351,7 +71348,7 @@
         <v>78</v>
       </c>
       <c r="E2224" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2224">
         <v>37.808616999999998</v>
@@ -71383,7 +71380,7 @@
         <v>78</v>
       </c>
       <c r="E2225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2225">
         <v>37.808616999999998</v>
@@ -71415,7 +71412,7 @@
         <v>78</v>
       </c>
       <c r="E2226" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2226">
         <v>37.808616999999998</v>
@@ -71447,7 +71444,7 @@
         <v>78</v>
       </c>
       <c r="E2227" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2227">
         <v>37.808616999999998</v>
@@ -71479,7 +71476,7 @@
         <v>78</v>
       </c>
       <c r="E2228" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2228">
         <v>37.808616999999998</v>
@@ -71511,7 +71508,7 @@
         <v>78</v>
       </c>
       <c r="E2229" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2229">
         <v>37.808616999999998</v>
@@ -71543,7 +71540,7 @@
         <v>78</v>
       </c>
       <c r="E2230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2230">
         <v>37.808616999999998</v>
@@ -71575,7 +71572,7 @@
         <v>78</v>
       </c>
       <c r="E2231" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2231">
         <v>37.808616999999998</v>
@@ -71607,7 +71604,7 @@
         <v>78</v>
       </c>
       <c r="E2232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2232">
         <v>37.808616999999998</v>
@@ -71639,7 +71636,7 @@
         <v>78</v>
       </c>
       <c r="E2233" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2233">
         <v>37.808616999999998</v>
@@ -71671,7 +71668,7 @@
         <v>78</v>
       </c>
       <c r="E2234" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2234">
         <v>37.808616999999998</v>
@@ -71703,7 +71700,7 @@
         <v>78</v>
       </c>
       <c r="E2235" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2235">
         <v>37.808616999999998</v>
@@ -71735,7 +71732,7 @@
         <v>78</v>
       </c>
       <c r="E2236" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2236">
         <v>37.808616999999998</v>
@@ -71761,7 +71758,7 @@
         <v>78</v>
       </c>
       <c r="E2237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2237">
         <v>37.808616999999998</v>
@@ -71793,7 +71790,7 @@
         <v>78</v>
       </c>
       <c r="E2238" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2238">
         <v>37.808616999999998</v>
@@ -71825,7 +71822,7 @@
         <v>78</v>
       </c>
       <c r="E2239" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2239">
         <v>37.808616999999998</v>
@@ -71857,7 +71854,7 @@
         <v>78</v>
       </c>
       <c r="E2240" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2240">
         <v>37.808616999999998</v>
@@ -71886,10 +71883,10 @@
         <v>15</v>
       </c>
       <c r="D2241" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="E2241" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2241">
         <v>37.808616999999998</v>
@@ -71921,7 +71918,7 @@
         <v>78</v>
       </c>
       <c r="E2242" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2242">
         <v>37.808616999999998</v>
@@ -71953,7 +71950,7 @@
         <v>78</v>
       </c>
       <c r="E2243" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2243">
         <v>37.808616999999998</v>
@@ -71985,7 +71982,7 @@
         <v>78</v>
       </c>
       <c r="E2244" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2244">
         <v>37.808616999999998</v>
@@ -72017,7 +72014,7 @@
         <v>78</v>
       </c>
       <c r="E2245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2245">
         <v>37.808616999999998</v>
@@ -72049,7 +72046,7 @@
         <v>78</v>
       </c>
       <c r="E2246" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2246">
         <v>37.808616999999998</v>
@@ -72081,7 +72078,7 @@
         <v>78</v>
       </c>
       <c r="E2247" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2247">
         <v>37.808616999999998</v>
@@ -72113,7 +72110,7 @@
         <v>83</v>
       </c>
       <c r="E2248" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H2248">
         <v>92</v>
@@ -72136,7 +72133,7 @@
         <v>97</v>
       </c>
       <c r="E2249" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H2249">
         <v>72</v>
@@ -72159,7 +72156,7 @@
         <v>23</v>
       </c>
       <c r="E2250" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H2250">
         <v>68</v>
@@ -72179,10 +72176,10 @@
         <v>15</v>
       </c>
       <c r="D2251" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2251" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2251">
         <v>38.860283000000003</v>
@@ -72211,10 +72208,10 @@
         <v>15</v>
       </c>
       <c r="D2252" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2252" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2252">
         <v>38.860283000000003</v>
@@ -72243,10 +72240,10 @@
         <v>15</v>
       </c>
       <c r="D2253" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2253" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2253">
         <v>38.860283000000003</v>
@@ -72275,10 +72272,10 @@
         <v>15</v>
       </c>
       <c r="D2254" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2254" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2254">
         <v>38.860283000000003</v>
@@ -72307,10 +72304,10 @@
         <v>15</v>
       </c>
       <c r="D2255" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2255" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2255">
         <v>38.860283000000003</v>
@@ -72339,10 +72336,10 @@
         <v>15</v>
       </c>
       <c r="D2256" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2256" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2256">
         <v>38.860283000000003</v>
@@ -72371,10 +72368,10 @@
         <v>15</v>
       </c>
       <c r="D2257" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2257" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2257">
         <v>38.860283000000003</v>
@@ -72403,10 +72400,10 @@
         <v>15</v>
       </c>
       <c r="D2258" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2258" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2258">
         <v>38.860283000000003</v>
@@ -72435,10 +72432,10 @@
         <v>15</v>
       </c>
       <c r="D2259" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2259" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2259">
         <v>38.860283000000003</v>
@@ -72467,10 +72464,10 @@
         <v>15</v>
       </c>
       <c r="D2260" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2260" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2260">
         <v>38.860283000000003</v>
@@ -72499,10 +72496,10 @@
         <v>15</v>
       </c>
       <c r="D2261" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2261" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2261">
         <v>38.860283000000003</v>
@@ -72531,10 +72528,10 @@
         <v>15</v>
       </c>
       <c r="D2262" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2262" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2262">
         <v>38.860283000000003</v>
@@ -72563,10 +72560,10 @@
         <v>15</v>
       </c>
       <c r="D2263" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2263" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2263">
         <v>38.860283000000003</v>
@@ -72595,10 +72592,10 @@
         <v>15</v>
       </c>
       <c r="D2264" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2264" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2264">
         <v>38.860283000000003</v>
@@ -72627,10 +72624,10 @@
         <v>15</v>
       </c>
       <c r="D2265" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2265" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2265">
         <v>38.860283000000003</v>
@@ -72659,10 +72656,10 @@
         <v>15</v>
       </c>
       <c r="D2266" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2266" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2266">
         <v>38.860283000000003</v>
@@ -72691,10 +72688,10 @@
         <v>15</v>
       </c>
       <c r="D2267" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2267" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2267">
         <v>38.860283000000003</v>
@@ -72723,10 +72720,10 @@
         <v>15</v>
       </c>
       <c r="D2268" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2268" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2268">
         <v>38.860283000000003</v>
@@ -72755,10 +72752,10 @@
         <v>15</v>
       </c>
       <c r="D2269" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2269" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2269">
         <v>38.860283000000003</v>
@@ -72787,10 +72784,10 @@
         <v>15</v>
       </c>
       <c r="D2270" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2270" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2270">
         <v>38.860283000000003</v>
@@ -72819,10 +72816,10 @@
         <v>15</v>
       </c>
       <c r="D2271" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2271" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2271">
         <v>38.860283000000003</v>
@@ -72851,10 +72848,10 @@
         <v>15</v>
       </c>
       <c r="D2272" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2272" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2272">
         <v>38.860283000000003</v>
@@ -72883,10 +72880,10 @@
         <v>15</v>
       </c>
       <c r="D2273" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2273" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2273">
         <v>38.860283000000003</v>
@@ -72915,10 +72912,10 @@
         <v>15</v>
       </c>
       <c r="D2274" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2274" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2274">
         <v>38.860283000000003</v>
@@ -72947,10 +72944,10 @@
         <v>15</v>
       </c>
       <c r="D2275" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2275" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2275">
         <v>38.860283000000003</v>
@@ -72979,10 +72976,10 @@
         <v>15</v>
       </c>
       <c r="D2276" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2276" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2276">
         <v>38.860283000000003</v>
@@ -73011,10 +73008,10 @@
         <v>15</v>
       </c>
       <c r="D2277" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2277" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2277">
         <v>38.860283000000003</v>
@@ -73043,10 +73040,10 @@
         <v>15</v>
       </c>
       <c r="D2278" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2278" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2278">
         <v>38.860283000000003</v>
@@ -73075,10 +73072,10 @@
         <v>15</v>
       </c>
       <c r="D2279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2279">
         <v>38.860283000000003</v>
@@ -73107,10 +73104,10 @@
         <v>15</v>
       </c>
       <c r="D2280" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2280" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F2280">
         <v>38.860283000000003</v>
@@ -73142,7 +73139,7 @@
         <v>83</v>
       </c>
       <c r="E2281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2281">
         <v>37.060282999999998</v>
@@ -73171,7 +73168,7 @@
         <v>83</v>
       </c>
       <c r="E2282" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2282">
         <v>37.060282999999998</v>
@@ -73203,7 +73200,7 @@
         <v>83</v>
       </c>
       <c r="E2283" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2283">
         <v>37.060282999999998</v>
@@ -73235,7 +73232,7 @@
         <v>83</v>
       </c>
       <c r="E2284" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2284">
         <v>37.060282999999998</v>
@@ -73267,7 +73264,7 @@
         <v>83</v>
       </c>
       <c r="E2285" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2285">
         <v>37.060282999999998</v>
@@ -73299,7 +73296,7 @@
         <v>83</v>
       </c>
       <c r="E2286" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2286">
         <v>37.060282999999998</v>
@@ -73331,7 +73328,7 @@
         <v>83</v>
       </c>
       <c r="E2287" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2287">
         <v>37.060282999999998</v>
@@ -73363,7 +73360,7 @@
         <v>83</v>
       </c>
       <c r="E2288" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2288">
         <v>37.060282999999998</v>
@@ -73395,7 +73392,7 @@
         <v>83</v>
       </c>
       <c r="E2289" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2289">
         <v>37.060282999999998</v>
@@ -73427,7 +73424,7 @@
         <v>83</v>
       </c>
       <c r="E2290" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2290">
         <v>37.060282999999998</v>
@@ -73459,7 +73456,7 @@
         <v>83</v>
       </c>
       <c r="E2291" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2291">
         <v>37.060282999999998</v>
@@ -73491,7 +73488,7 @@
         <v>83</v>
       </c>
       <c r="E2292" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2292">
         <v>37.060282999999998</v>
@@ -73523,7 +73520,7 @@
         <v>83</v>
       </c>
       <c r="E2293" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2293">
         <v>37.060282999999998</v>
@@ -73555,7 +73552,7 @@
         <v>83</v>
       </c>
       <c r="E2294" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2294">
         <v>37.060282999999998</v>
@@ -73587,7 +73584,7 @@
         <v>83</v>
       </c>
       <c r="E2295" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2295">
         <v>37.060282999999998</v>
@@ -73619,7 +73616,7 @@
         <v>83</v>
       </c>
       <c r="E2296" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2296">
         <v>37.060282999999998</v>
@@ -73651,7 +73648,7 @@
         <v>83</v>
       </c>
       <c r="E2297" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2297">
         <v>37.060282999999998</v>
@@ -73683,7 +73680,7 @@
         <v>83</v>
       </c>
       <c r="E2298" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2298">
         <v>37.060282999999998</v>
@@ -73715,7 +73712,7 @@
         <v>83</v>
       </c>
       <c r="E2299" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2299">
         <v>37.060282999999998</v>
@@ -73747,7 +73744,7 @@
         <v>83</v>
       </c>
       <c r="E2300" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2300">
         <v>37.060282999999998</v>
@@ -73779,7 +73776,7 @@
         <v>83</v>
       </c>
       <c r="E2301" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2301">
         <v>37.060282999999998</v>
@@ -73811,7 +73808,7 @@
         <v>83</v>
       </c>
       <c r="E2302" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2302">
         <v>37.060282999999998</v>
@@ -73843,7 +73840,7 @@
         <v>83</v>
       </c>
       <c r="E2303" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2303">
         <v>37.060282999999998</v>
@@ -73875,7 +73872,7 @@
         <v>83</v>
       </c>
       <c r="E2304" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2304">
         <v>37.060282999999998</v>
@@ -73907,7 +73904,7 @@
         <v>83</v>
       </c>
       <c r="E2305" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2305">
         <v>37.060282999999998</v>
@@ -73939,7 +73936,7 @@
         <v>83</v>
       </c>
       <c r="E2306" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2306">
         <v>37.060282999999998</v>
@@ -73971,7 +73968,7 @@
         <v>83</v>
       </c>
       <c r="E2307" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2307">
         <v>37.060282999999998</v>
@@ -74003,7 +74000,7 @@
         <v>83</v>
       </c>
       <c r="E2308" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2308">
         <v>37.060282999999998</v>
@@ -74035,7 +74032,7 @@
         <v>83</v>
       </c>
       <c r="E2309" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2309">
         <v>37.060282999999998</v>
@@ -74067,7 +74064,7 @@
         <v>83</v>
       </c>
       <c r="E2310" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2310">
         <v>37.060282999999998</v>
@@ -74099,7 +74096,7 @@
         <v>83</v>
       </c>
       <c r="E2311" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2311">
         <v>37.060282999999998</v>
@@ -74131,7 +74128,7 @@
         <v>83</v>
       </c>
       <c r="E2312" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2312">
         <v>37.060282999999998</v>
@@ -74163,7 +74160,7 @@
         <v>83</v>
       </c>
       <c r="E2313" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2313">
         <v>37.060282999999998</v>
@@ -74192,10 +74189,10 @@
         <v>11</v>
       </c>
       <c r="D2314" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E2314" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H2314">
         <v>100</v>
@@ -74205,6 +74202,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D2314" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
